--- a/MercuryTours/Resources/datapool/usuarios.xlsx
+++ b/MercuryTours/Resources/datapool/usuarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12900" windowHeight="3390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="2820"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Andres Henao</t>
   </si>
@@ -114,16 +114,36 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>lzapata@edeq.com</t>
+  </si>
+  <si>
+    <t>mgarcia@edeq.com</t>
+  </si>
+  <si>
+    <t>dflores@edeq.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -146,10 +166,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -158,8 +179,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -465,14 +491,15 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -596,6 +623,20 @@
         <v>15</v>
       </c>
     </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
     </row>
@@ -606,7 +647,12 @@
       <c r="C9" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/MercuryTours/Resources/datapool/usuarios.xlsx
+++ b/MercuryTours/Resources/datapool/usuarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="2820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="5070"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>Andres Henao</t>
   </si>
@@ -62,9 +62,6 @@
     <t>storres</t>
   </si>
   <si>
-    <t>sgracia</t>
-  </si>
-  <si>
     <t>LUIS ZAPATA</t>
   </si>
   <si>
@@ -126,6 +123,27 @@
   </si>
   <si>
     <t>dflores@edeq.com</t>
+  </si>
+  <si>
+    <t>ahenao@edeq.com</t>
+  </si>
+  <si>
+    <t>slopez@gmail.com</t>
+  </si>
+  <si>
+    <t>storres@hotmail.com</t>
+  </si>
+  <si>
+    <t>sgarcia</t>
+  </si>
+  <si>
+    <t>sgarcia@edeq.com</t>
+  </si>
+  <si>
+    <t>Juan David restrepo</t>
+  </si>
+  <si>
+    <t>Lina maria duran</t>
   </si>
 </sst>
 </file>
@@ -491,7 +509,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,31 +530,31 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -544,13 +562,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
@@ -563,6 +581,12 @@
       </c>
       <c r="H3" t="s">
         <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -570,31 +594,31 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="2">
         <v>2</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -620,21 +644,33 @@
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>36</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -651,8 +687,12 @@
     <hyperlink ref="B6" r:id="rId1"/>
     <hyperlink ref="C6" r:id="rId2"/>
     <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="E6" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="G6" r:id="rId6"/>
+    <hyperlink ref="H6" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/MercuryTours/Resources/datapool/usuarios.xlsx
+++ b/MercuryTours/Resources/datapool/usuarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="5070"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="4995"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>Andres Henao</t>
   </si>
@@ -144,6 +144,18 @@
   </si>
   <si>
     <t>Lina maria duran</t>
+  </si>
+  <si>
+    <t>jdavid@edeq.com.co</t>
+  </si>
+  <si>
+    <t>lamariad@gmail.com</t>
+  </si>
+  <si>
+    <t>jdavid</t>
+  </si>
+  <si>
+    <t>lamariad</t>
   </si>
 </sst>
 </file>
@@ -508,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,6 +658,12 @@
       <c r="H5" t="s">
         <v>39</v>
       </c>
+      <c r="I5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -671,6 +689,12 @@
       </c>
       <c r="H6" s="4" t="s">
         <v>40</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -691,8 +715,10 @@
     <hyperlink ref="F6" r:id="rId5"/>
     <hyperlink ref="G6" r:id="rId6"/>
     <hyperlink ref="H6" r:id="rId7"/>
+    <hyperlink ref="J6" r:id="rId8"/>
+    <hyperlink ref="I5" r:id="rId9" display="jdavid@edeq.com.co"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>